--- a/Raj Chudasama/2022-12-08/Hampton Trophy Club/remaining arrivals 12-08-22.xlsx
+++ b/Raj Chudasama/2022-12-08/Hampton Trophy Club/remaining arrivals 12-08-22.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="50">
   <si>
     <t>Guest Name</t>
   </si>
@@ -34,66 +34,78 @@
     <t>Arrival Date</t>
   </si>
   <si>
-    <t>Depart Date</t>
-  </si>
-  <si>
     <t>Room Type</t>
   </si>
   <si>
-    <t>BOAZ/RODNEY</t>
-  </si>
-  <si>
-    <t>Eversole/Matthew</t>
-  </si>
-  <si>
-    <t>HOLLOWELL/CHAROLETT</t>
-  </si>
-  <si>
-    <t>NELSON/JANE</t>
+    <t xml:space="preserve">BOAZ/RODNEY </t>
+  </si>
+  <si>
+    <t>Buttress and John B*/Sylvi*</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Eversole/Matthew </t>
+  </si>
+  <si>
+    <t xml:space="preserve">HOLLOWELL/CHAROLETT </t>
+  </si>
+  <si>
+    <t xml:space="preserve">NELSON/JANE </t>
   </si>
   <si>
     <t>Nelson/Mike</t>
   </si>
   <si>
-    <t>Sloan/Cameron</t>
-  </si>
-  <si>
-    <t>SMITH/SUZETTE</t>
-  </si>
-  <si>
-    <t>Snow/Melissa</t>
+    <t xml:space="preserve">Sloan/Cameron </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SMITH/SUZETTE </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Snow/Melissa </t>
   </si>
   <si>
     <t>Thorn/Bradley</t>
   </si>
   <si>
-    <t>WALKER/ANTHONY</t>
-  </si>
-  <si>
-    <t>WAYNICK/JOHN ANDREW</t>
-  </si>
-  <si>
-    <t>WRIGHT/RONELL</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> G </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> S </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> D </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> B </t>
-  </si>
-  <si>
-    <t xml:space="preserve">H3F  </t>
+    <t xml:space="preserve">WALKER/ANTHONY </t>
+  </si>
+  <si>
+    <t xml:space="preserve">WAYNICK/JOHN ANDREW </t>
+  </si>
+  <si>
+    <t xml:space="preserve">WRIGHT/RONELL </t>
+  </si>
+  <si>
+    <t>G</t>
+  </si>
+  <si>
+    <t>S</t>
+  </si>
+  <si>
+    <t>D</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BOOKING COM VCC </t>
+  </si>
+  <si>
+    <t xml:space="preserve">WEDDING </t>
+  </si>
+  <si>
+    <t xml:space="preserve">BOOKING COM </t>
+  </si>
+  <si>
+    <t xml:space="preserve">WW GRAINGER </t>
   </si>
   <si>
     <t>$135.00</t>
   </si>
   <si>
+    <t>$131.00</t>
+  </si>
+  <si>
     <t>$152.99</t>
   </si>
   <si>
@@ -121,6 +133,9 @@
     <t>L-H1P</t>
   </si>
   <si>
+    <t>L-BQO</t>
+  </si>
+  <si>
     <t>S-DP1</t>
   </si>
   <si>
@@ -133,13 +148,13 @@
     <t>L-3GF</t>
   </si>
   <si>
-    <t xml:space="preserve">  S-H2A</t>
+    <t>S-H2A</t>
   </si>
   <si>
     <t>S-FW6</t>
   </si>
   <si>
-    <t>12/8/2022</t>
+    <t>12/22/2022</t>
   </si>
   <si>
     <t>NKRU</t>
@@ -149,12 +164,6 @@
   </si>
   <si>
     <t>NKJZ</t>
-  </si>
-  <si>
-    <t>97403</t>
-  </si>
-  <si>
-    <t>TOTAL</t>
   </si>
 </sst>
 </file>
@@ -512,13 +521,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H13"/>
+  <dimension ref="A1:G14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -540,245 +549,268 @@
       <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" t="s">
         <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8">
-      <c r="A2" t="s">
-        <v>8</v>
       </c>
       <c r="B2" t="s">
         <v>20</v>
       </c>
       <c r="D2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E2" t="s">
+        <v>38</v>
+      </c>
+      <c r="F2" t="s">
+        <v>46</v>
+      </c>
+      <c r="G2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E3" t="s">
+        <v>39</v>
+      </c>
+      <c r="F3" t="s">
+        <v>46</v>
+      </c>
+      <c r="G3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D4" t="s">
+        <v>30</v>
+      </c>
+      <c r="E4" t="s">
+        <v>40</v>
+      </c>
+      <c r="F4" t="s">
+        <v>46</v>
+      </c>
+      <c r="G4" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" t="s">
         <v>25</v>
       </c>
-      <c r="E2" t="s">
+      <c r="D5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E5" t="s">
+        <v>38</v>
+      </c>
+      <c r="F5" t="s">
+        <v>46</v>
+      </c>
+      <c r="G5" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D6" t="s">
+        <v>31</v>
+      </c>
+      <c r="E6" t="s">
+        <v>41</v>
+      </c>
+      <c r="F6" t="s">
+        <v>46</v>
+      </c>
+      <c r="G6" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D7" t="s">
+        <v>31</v>
+      </c>
+      <c r="E7" t="s">
+        <v>41</v>
+      </c>
+      <c r="F7" t="s">
+        <v>46</v>
+      </c>
+      <c r="G7" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D8" t="s">
+        <v>32</v>
+      </c>
+      <c r="E8" t="s">
+        <v>42</v>
+      </c>
+      <c r="F8" t="s">
+        <v>46</v>
+      </c>
+      <c r="G8" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="D9" t="s">
+        <v>33</v>
+      </c>
+      <c r="E9" t="s">
+        <v>38</v>
+      </c>
+      <c r="F9" t="s">
+        <v>46</v>
+      </c>
+      <c r="G9" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10" t="s">
+        <v>21</v>
+      </c>
+      <c r="D10" t="s">
         <v>34</v>
-      </c>
-      <c r="F2" t="s">
-        <v>41</v>
-      </c>
-      <c r="H2" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
-      <c r="A3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B3" t="s">
-        <v>20</v>
-      </c>
-      <c r="D3" t="s">
-        <v>26</v>
-      </c>
-      <c r="E3" t="s">
-        <v>35</v>
-      </c>
-      <c r="F3" t="s">
-        <v>41</v>
-      </c>
-      <c r="H3" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
-      <c r="A4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B4" t="s">
-        <v>21</v>
-      </c>
-      <c r="D4" t="s">
-        <v>25</v>
-      </c>
-      <c r="E4" t="s">
-        <v>34</v>
-      </c>
-      <c r="F4" t="s">
-        <v>41</v>
-      </c>
-      <c r="H4" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
-      <c r="A5" t="s">
-        <v>11</v>
-      </c>
-      <c r="B5" t="s">
-        <v>22</v>
-      </c>
-      <c r="D5" t="s">
-        <v>27</v>
-      </c>
-      <c r="E5" t="s">
-        <v>36</v>
-      </c>
-      <c r="F5" t="s">
-        <v>41</v>
-      </c>
-      <c r="H5" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
-      <c r="A6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D6" t="s">
-        <v>27</v>
-      </c>
-      <c r="E6" t="s">
-        <v>36</v>
-      </c>
-      <c r="F6" t="s">
-        <v>41</v>
-      </c>
-      <c r="H6" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
-      <c r="A7" t="s">
-        <v>13</v>
-      </c>
-      <c r="B7" t="s">
-        <v>20</v>
-      </c>
-      <c r="C7" t="s">
-        <v>24</v>
-      </c>
-      <c r="D7" t="s">
-        <v>28</v>
-      </c>
-      <c r="E7" t="s">
-        <v>37</v>
-      </c>
-      <c r="F7" t="s">
-        <v>41</v>
-      </c>
-      <c r="H7" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
-      <c r="A8" t="s">
-        <v>14</v>
-      </c>
-      <c r="B8" t="s">
-        <v>23</v>
-      </c>
-      <c r="D8" t="s">
-        <v>29</v>
-      </c>
-      <c r="E8" t="s">
-        <v>34</v>
-      </c>
-      <c r="F8" t="s">
-        <v>41</v>
-      </c>
-      <c r="H8" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
-      <c r="A9" t="s">
-        <v>15</v>
-      </c>
-      <c r="B9" t="s">
-        <v>21</v>
-      </c>
-      <c r="D9" t="s">
-        <v>30</v>
-      </c>
-      <c r="E9" t="s">
-        <v>34</v>
-      </c>
-      <c r="F9" t="s">
-        <v>41</v>
-      </c>
-      <c r="H9" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
-      <c r="A10" t="s">
-        <v>16</v>
-      </c>
-      <c r="D10" t="s">
-        <v>31</v>
       </c>
       <c r="E10" t="s">
         <v>38</v>
       </c>
       <c r="F10" t="s">
+        <v>46</v>
+      </c>
+      <c r="G10" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" t="s">
+        <v>16</v>
+      </c>
+      <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" t="s">
+        <v>35</v>
+      </c>
+      <c r="E11" t="s">
+        <v>43</v>
+      </c>
+      <c r="F11" t="s">
+        <v>46</v>
+      </c>
+      <c r="G11" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" t="s">
+        <v>17</v>
+      </c>
+      <c r="B12" t="s">
+        <v>20</v>
+      </c>
+      <c r="D12" t="s">
+        <v>36</v>
+      </c>
+      <c r="E12" t="s">
+        <v>44</v>
+      </c>
+      <c r="F12" t="s">
+        <v>46</v>
+      </c>
+      <c r="G12" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" t="s">
+        <v>18</v>
+      </c>
+      <c r="B13" t="s">
+        <v>22</v>
+      </c>
+      <c r="D13" t="s">
+        <v>31</v>
+      </c>
+      <c r="E13" t="s">
         <v>41</v>
       </c>
-      <c r="H10" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
-      <c r="A11" t="s">
-        <v>17</v>
-      </c>
-      <c r="B11" t="s">
-        <v>20</v>
-      </c>
-      <c r="D11" t="s">
-        <v>32</v>
-      </c>
-      <c r="E11" t="s">
-        <v>39</v>
-      </c>
-      <c r="F11" t="s">
-        <v>41</v>
-      </c>
-      <c r="H11" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
-      <c r="A12" t="s">
-        <v>18</v>
-      </c>
-      <c r="B12" t="s">
-        <v>22</v>
-      </c>
-      <c r="D12" t="s">
+      <c r="F13" t="s">
+        <v>46</v>
+      </c>
+      <c r="G13" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" t="s">
+        <v>19</v>
+      </c>
+      <c r="B14" t="s">
+        <v>23</v>
+      </c>
+      <c r="C14" t="s">
         <v>27</v>
       </c>
-      <c r="E12" t="s">
-        <v>36</v>
-      </c>
-      <c r="F12" t="s">
-        <v>41</v>
-      </c>
-      <c r="H12" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8">
-      <c r="A13" t="s">
-        <v>19</v>
-      </c>
-      <c r="B13" t="s">
-        <v>23</v>
-      </c>
-      <c r="D13" t="s">
-        <v>33</v>
-      </c>
-      <c r="E13" t="s">
-        <v>40</v>
-      </c>
-      <c r="F13" t="s">
-        <v>41</v>
-      </c>
-      <c r="H13" t="s">
-        <v>46</v>
+      <c r="D14" t="s">
+        <v>37</v>
+      </c>
+      <c r="E14" t="s">
+        <v>45</v>
+      </c>
+      <c r="F14" t="s">
+        <v>46</v>
+      </c>
+      <c r="G14" t="s">
+        <v>47</v>
       </c>
     </row>
   </sheetData>
